--- a/Meeting Minutes.xlsx
+++ b/Meeting Minutes.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">Do read up on Public Kernels to get a balanced picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picked Significant Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to impute/transform/engineer features by this Friday</t>
   </si>
 </sst>
 </file>
@@ -71,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -158,6 +168,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,16 +251,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -319,11 +333,36 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>43040</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Meeting Minutes.xlsx
+++ b/Meeting Minutes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Time</t>
   </si>
   <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
     <t xml:space="preserve">Points</t>
   </si>
   <si>
@@ -40,6 +43,36 @@
     <t xml:space="preserve">1pm-2pm</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Meeting</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">All Variables whether they are significant / insignificant</t>
   </si>
   <si>
@@ -61,10 +94,37 @@
     <t xml:space="preserve">Wednesday</t>
   </si>
   <si>
+    <t xml:space="preserve">Short List Vars</t>
+  </si>
+  <si>
     <t xml:space="preserve">Picked Significant Variables</t>
   </si>
   <si>
     <t xml:space="preserve">Try to impute/transform/engineer features by this Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3pm–4pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meet with TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impute: Mean, Median, Mode, KNN, Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t overcomplicate imputation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA (Unsupervised) , Lasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest, GBM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare Excel Sheet to Track Hyperparameter Tuning</t>
   </si>
 </sst>
 </file>
@@ -75,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,6 +156,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +220,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,7 +237,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,18 +326,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.24"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,91 +354,165 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>43038</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>43040</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>43041</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
